--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -336,8 +336,8 @@
   </sheetPr>
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F32" activeCellId="0" sqref="F32"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="85">
   <si>
     <t xml:space="preserve">J0_BT</t>
   </si>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">47u</t>
   </si>
   <si>
-    <t xml:space="preserve">T529P476M010AAE200</t>
+    <t xml:space="preserve">T58W9476M6R3C0150</t>
   </si>
   <si>
     <t xml:space="preserve">C4</t>
@@ -142,6 +142,9 @@
     <t xml:space="preserve">1MEG</t>
   </si>
   <si>
+    <t xml:space="preserve">CR0603-FX-1004ELF</t>
+  </si>
+  <si>
     <t xml:space="preserve">R3</t>
   </si>
   <si>
@@ -199,6 +202,12 @@
     <t xml:space="preserve">J0_VOL</t>
   </si>
   <si>
+    <t xml:space="preserve">100u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TMCMB1A107MTRF</t>
+  </si>
+  <si>
     <t xml:space="preserve">270p</t>
   </si>
   <si>
@@ -224,6 +233,42 @@
   </si>
   <si>
     <t xml:space="preserve">ECH-U1H102JX5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1A-13-F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">282834-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0603-FX-1003ELF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CR0603-FX-2002ELF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10</t>
   </si>
   <si>
     <t xml:space="preserve">J0_BLEND</t>
@@ -245,6 +290,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -334,26 +380,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.7091836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="0"/>
+      <c r="E1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -418,10 +466,7 @@
         <v>14</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>1.59</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -497,6 +542,7 @@
       <c r="B8" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="C8" s="0"/>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
@@ -514,6 +560,7 @@
       <c r="B9" s="0" t="s">
         <v>29</v>
       </c>
+      <c r="C9" s="0"/>
       <c r="E9" s="1" t="s">
         <v>27</v>
       </c>
@@ -534,6 +581,7 @@
       <c r="B10" s="0" t="s">
         <v>31</v>
       </c>
+      <c r="C10" s="0"/>
       <c r="E10" s="1" t="s">
         <v>32</v>
       </c>
@@ -581,27 +629,27 @@
         <v>10</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.165</v>
+        <v>0.137</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.04</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>0.137</v>
@@ -612,16 +660,16 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>0.137</v>
@@ -632,16 +680,16 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0.137</v>
@@ -652,16 +700,16 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>0.137</v>
@@ -672,16 +720,16 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0.137</v>
@@ -692,19 +740,19 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>3.31</v>
@@ -713,10 +761,16 @@
         <v>2.61</v>
       </c>
     </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="0"/>
+      <c r="E19" s="0"/>
+    </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>58</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="E20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -749,7 +803,7 @@
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>4</v>
@@ -758,13 +812,13 @@
         <v>5</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>2.13</v>
+        <v>0.686</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>1.59</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -772,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>17</v>
@@ -781,7 +835,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>0.439</v>
@@ -830,10 +884,7 @@
         <v>14</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="H25" s="0" t="n">
-        <v>1.59</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -841,7 +892,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>17</v>
@@ -850,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>0.439</v>
@@ -861,10 +912,10 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>4</v>
@@ -873,7 +924,7 @@
         <v>5</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>0.508</v>
@@ -884,7 +935,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
@@ -907,10 +958,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>17</v>
@@ -919,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G29" s="0" t="n">
         <v>0.768</v>
@@ -928,17 +979,321 @@
         <v>0.442</v>
       </c>
     </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>0.384</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>0.259</v>
+      </c>
+    </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="C31" s="0"/>
+      <c r="E31" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G31" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="0"/>
+      <c r="E32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="G32" s="0" t="n">
+        <v>0.713</v>
+      </c>
+      <c r="H32" s="0" t="n">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="0"/>
+      <c r="E33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="0" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="0"/>
+      <c r="E34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="0" t="n">
+        <v>0.494</v>
+      </c>
+      <c r="H34" s="0" t="n">
+        <v>0.199</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H35" s="0" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="0" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H36" s="0" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G37" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H37" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G38" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H42" s="0" t="n">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="0" t="n">
+        <v>0.137</v>
+      </c>
+      <c r="H43" s="0" t="n">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="G44" s="0" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H44" s="0" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" s="0" t="n">
         <v>8.63</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">FILM</t>
   </si>
   <si>
-    <t xml:space="preserve">ECH-U1C272GX5</t>
+    <t xml:space="preserve">ECH-U1H272GX5</t>
   </si>
   <si>
     <t xml:space="preserve">C5</t>
@@ -401,14 +401,17 @@
   <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="C7:H7"/>
+      <selection pane="topLeft" activeCell="I6" activeCellId="0" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.8010204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,6 +505,9 @@
       </c>
       <c r="G5" s="0" t="n">
         <v>0.796</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>0.457</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="126">
   <si>
     <t>J0_BT</t>
   </si>
@@ -382,6 +382,21 @@
   </si>
   <si>
     <t xml:space="preserve">ECH-U1C472GX5 </t>
+  </si>
+  <si>
+    <t>C8*</t>
+  </si>
+  <si>
+    <t>0.047u</t>
+  </si>
+  <si>
+    <t>MKP2</t>
+  </si>
+  <si>
+    <t>MKS2D031001A00KA00</t>
+  </si>
+  <si>
+    <t>MKS2D024701A00JI00</t>
   </si>
 </sst>
 </file>
@@ -726,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E102" sqref="E102:H102"/>
+    <sheetView tabSelected="1" topLeftCell="B9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1283,133 +1298,138 @@
         <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>3</v>
+        <v>122</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>5</v>
+        <v>123</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>125</v>
       </c>
       <c r="G28">
-        <v>0.79600000000000004</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="H28">
-        <v>0.60099999999999998</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>74</v>
       </c>
-      <c r="G29">
+      <c r="G30">
         <v>0.76800000000000002</v>
       </c>
-      <c r="H29">
+      <c r="H30">
         <v>0.442</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G30">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="H30">
-        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G31">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>28</v>
-      </c>
-      <c r="C31"/>
-      <c r="E31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31">
-        <v>1.52</v>
-      </c>
-      <c r="H31">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B32" t="s">
-        <v>31</v>
       </c>
       <c r="C32"/>
       <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G32">
-        <v>0.71299999999999997</v>
+        <v>1.52</v>
       </c>
       <c r="H32">
-        <v>0.63100000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C33"/>
       <c r="E33" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G33">
-        <v>0.49399999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H33">
-        <v>0.19900000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
       <c r="B34" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C34"/>
       <c r="E34" s="1" t="s">
@@ -1426,71 +1446,69 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35"/>
+      <c r="E35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="G35">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H35">
+      <c r="G36">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H36">
         <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B36" t="s">
-        <v>40</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" t="s">
-        <v>82</v>
-      </c>
-      <c r="G36">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="H36">
-        <v>0.04</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="G37">
-        <v>0.13700000000000001</v>
+        <v>0.16500000000000001</v>
       </c>
       <c r="H37">
-        <v>2.9000000000000001E-2</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>53</v>
@@ -1510,172 +1528,169 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="G39">
         <v>0.13700000000000001</v>
       </c>
       <c r="H39">
-        <v>1.2E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="G40">
         <v>0.13700000000000001</v>
       </c>
       <c r="H40">
-        <v>3.4000000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B41" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="G41">
         <v>0.13700000000000001</v>
       </c>
       <c r="H41">
-        <v>2.9000000000000001E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B42" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>51</v>
+      <c r="F42" t="s">
+        <v>83</v>
       </c>
       <c r="G42">
         <v>0.13700000000000001</v>
       </c>
       <c r="H42">
-        <v>4.9000000000000002E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F43" t="s">
-        <v>57</v>
+      <c r="F43" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="G43">
         <v>0.13700000000000001</v>
       </c>
       <c r="H43">
-        <v>2.9000000000000001E-2</v>
+        <v>4.9000000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+      <c r="G44">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H44">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s">
         <v>39</v>
       </c>
-      <c r="G44">
+      <c r="G45">
         <v>0.16500000000000001</v>
       </c>
-      <c r="H44">
+      <c r="H45">
         <v>0.04</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F47" t="s">
         <v>88</v>
       </c>
-      <c r="G46">
+      <c r="G47">
         <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F49" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H49">
-        <v>0.44600000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B50" t="s">
-        <v>7</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
@@ -1698,211 +1713,214 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G51">
-        <v>0.86399999999999999</v>
+        <v>0.50800000000000001</v>
       </c>
       <c r="H51">
-        <v>0.49099999999999999</v>
+        <v>0.44600000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="G52">
-        <v>0.439</v>
+        <v>0.86399999999999999</v>
       </c>
       <c r="H52">
-        <v>0.214</v>
+        <v>0.49099999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="G53">
-        <v>1.1499999999999999</v>
+        <v>0.439</v>
       </c>
       <c r="H53">
-        <v>0.66</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>66</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F54" t="s">
+        <v>91</v>
+      </c>
+      <c r="G54">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H54">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D55" t="s">
+        <v>17</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" t="s">
         <v>67</v>
       </c>
-      <c r="G54">
+      <c r="G55">
         <v>0.439</v>
       </c>
-      <c r="H54">
+      <c r="H55">
         <v>0.214</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55" t="s">
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="G55">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H55">
+      <c r="G56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H56">
         <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G56">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H56">
-        <v>1.2E-2</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>54</v>
+        <v>116</v>
       </c>
       <c r="G57">
         <v>0.13700000000000001</v>
       </c>
       <c r="H57">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>115</v>
+        <v>53</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="G58">
         <v>0.13700000000000001</v>
       </c>
       <c r="H58">
-        <v>1.2E-2</v>
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>94</v>
+        <v>116</v>
       </c>
       <c r="G59">
         <v>0.13700000000000001</v>
       </c>
       <c r="H59">
-        <v>2.9000000000000001E-2</v>
+        <v>1.2E-2</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>60</v>
+        <v>93</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G60">
         <v>0.13700000000000001</v>
@@ -1913,7 +1931,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>60</v>
@@ -1933,78 +1951,75 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" t="s">
+        <v>83</v>
+      </c>
+      <c r="G62">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H62">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>84</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G62">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H62">
+      <c r="G63">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H63">
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B64" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C64" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G63">
+      <c r="G64">
         <v>1.02</v>
       </c>
-      <c r="H63">
+      <c r="H64">
         <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B67" t="s">
         <v>2</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D66" t="s">
-        <v>17</v>
-      </c>
-      <c r="E66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66" t="s">
-        <v>91</v>
-      </c>
-      <c r="G66">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="H66">
-        <v>0.66</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B67" t="s">
-        <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
@@ -2027,27 +2042,30 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G68">
-        <v>0.37</v>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H68">
+        <v>0.66</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>20</v>
@@ -2061,13 +2079,16 @@
       <c r="F69" t="s">
         <v>100</v>
       </c>
+      <c r="G69">
+        <v>0.37</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
         <v>4</v>
@@ -2076,98 +2097,97 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70">
-        <v>0.50800000000000001</v>
-      </c>
-      <c r="H70">
-        <v>0.44600000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>17</v>
       </c>
-      <c r="E71" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F71" t="s">
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="G71">
+      <c r="G72">
         <v>0.439</v>
       </c>
-      <c r="H71">
+      <c r="H72">
         <v>0.214</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>75</v>
-      </c>
-      <c r="B72" t="s">
-        <v>76</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G72">
-        <v>0.38400000000000001</v>
-      </c>
-      <c r="H72">
-        <v>0.25900000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G73">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H73">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B74" t="s">
         <v>28</v>
-      </c>
-      <c r="C73"/>
-      <c r="E73" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73">
-        <v>1.52</v>
-      </c>
-      <c r="H73">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B74" t="s">
-        <v>31</v>
       </c>
       <c r="C74"/>
       <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="G74">
-        <v>0.71299999999999997</v>
+        <v>1.52</v>
       </c>
       <c r="H74">
-        <v>0.63100000000000001</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.4">
@@ -2207,29 +2227,29 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>32</v>
-      </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C77"/>
       <c r="E77" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F77" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G77">
-        <v>0.49399999999999999</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="H77">
-        <v>0.19900000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>32</v>
+      </c>
       <c r="B78" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="C78"/>
       <c r="E78" s="1" t="s">
@@ -2246,31 +2266,29 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79"/>
+      <c r="E79" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+      <c r="G79">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H79">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B80" t="s">
         <v>37</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F79" t="s">
-        <v>111</v>
-      </c>
-      <c r="G79">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H79">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B80" t="s">
-        <v>40</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>108</v>
@@ -2288,18 +2306,18 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B81" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>42</v>
+        <v>111</v>
       </c>
       <c r="G81">
         <v>0.13700000000000001</v>
@@ -2308,9 +2326,9 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B82" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>41</v>
@@ -2328,29 +2346,29 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B83" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s">
+        <v>42</v>
+      </c>
+      <c r="G83">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H83">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
         <v>49</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F83" t="s">
-        <v>116</v>
-      </c>
-      <c r="G83">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H83">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B84" t="s">
-        <v>52</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>117</v>
@@ -2368,29 +2386,29 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s">
+        <v>116</v>
+      </c>
+      <c r="G85">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H85">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
         <v>55</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F85" t="s">
-        <v>113</v>
-      </c>
-      <c r="G85">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H85">
-        <v>3.4000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B86" t="s">
-        <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>81</v>
@@ -2408,38 +2426,38 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s">
+        <v>113</v>
+      </c>
+      <c r="G87">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H87">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>85</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C88" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="E88" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="G87">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H87">
-        <v>4.9000000000000002E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B88" t="s">
-        <v>86</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="G88">
         <v>0.13700000000000001</v>
@@ -2448,38 +2466,38 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B89" t="s">
+        <v>86</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G89">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H89">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
         <v>101</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="C90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F89" t="s">
+      <c r="E90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s">
         <v>54</v>
-      </c>
-      <c r="G89">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H89">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B90" t="s">
-        <v>102</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F90" t="s">
-        <v>114</v>
       </c>
       <c r="G90">
         <v>0.13700000000000001</v>
@@ -2488,18 +2506,18 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="G91">
         <v>0.13700000000000001</v>
@@ -2508,9 +2526,9 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>60</v>
@@ -2528,18 +2546,18 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B93" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>93</v>
+        <v>60</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G93">
         <v>0.13700000000000001</v>
@@ -2548,9 +2566,9 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B94" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>93</v>
@@ -2568,18 +2586,18 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="G95">
         <v>0.13700000000000001</v>
@@ -2588,63 +2606,60 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
+        <v>107</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s">
+        <v>54</v>
+      </c>
+      <c r="G96">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H96">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
         <v>96</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="C97" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="F97" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="G96">
+      <c r="G97">
         <v>1.02</v>
       </c>
-      <c r="H96">
+      <c r="H97">
         <v>0.83599999999999997</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B100" t="s">
         <v>2</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="C100" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D99" t="s">
-        <v>17</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F99" t="s">
-        <v>92</v>
-      </c>
-      <c r="G99">
-        <v>0.86399999999999999</v>
-      </c>
-      <c r="H99">
-        <v>0.49099999999999999</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B100" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>119</v>
       </c>
       <c r="D100" t="s">
         <v>17</v>
@@ -2652,42 +2667,45 @@
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="3" t="s">
+      <c r="F100" t="s">
+        <v>92</v>
+      </c>
+      <c r="G100">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H100">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="G100">
+      <c r="G101">
         <v>0.82299999999999995</v>
       </c>
-      <c r="H100">
+      <c r="H101">
         <v>0.47199999999999998</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>36</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B102" t="s">
         <v>37</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F101" t="s">
-        <v>114</v>
-      </c>
-      <c r="G101">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="H101">
-        <v>2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="B102" t="s">
-        <v>40</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>110</v>
@@ -2702,6 +2720,26 @@
         <v>0.13700000000000001</v>
       </c>
       <c r="H102">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
+        <v>40</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s">
+        <v>114</v>
+      </c>
+      <c r="G103">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H103">
         <v>2.9000000000000001E-2</v>
       </c>
     </row>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="991"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -23,399 +22,395 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="128">
   <si>
-    <t xml:space="preserve">J0_BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJR104M020RNJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERAMIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C101JX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58W9476M6R3C0150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1H272GX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCA1210C105M-G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECP-U1C224MA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282834-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMBF5457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5MEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1504ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1004ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-6801ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-3901ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1000ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1002ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1801ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3296W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3296W-1-203LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J0_VOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMCMB1A107MTRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C271JXG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F920G106MPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS2D024701A00JI00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS2D031001A00KA00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1H102JX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1A-13-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282834-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1003ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-4701ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-2002ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J0_BLEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDB183-GTR22-504A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C103GX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECP-U1C104MA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1001ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC33178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC33178DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_BUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPSR105K020R6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-3303ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0602-FX-1003ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1502ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1202ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_MID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7n</t>
+    <t>J0_BT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>TANT</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>TAJR104M020RNJ</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>CERAMIC</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>ECH-U1C101JX5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>T58W9476M6R3C0150</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>2.7n</t>
+  </si>
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>ECH-U1H272GX5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>FCA1210C105M-G2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>470n</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>ECP-U1C224MA5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>2.54mm</t>
+  </si>
+  <si>
+    <t>282834-2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>MMBF5457</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>1.5MEG</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1504ELF</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1MEG</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1004ELF</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>6.8k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-6801ELF</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3901ELF</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1000ELF</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1002ELF</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>1.8k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1801ELF</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>3296W</t>
+  </si>
+  <si>
+    <t>3296W-1-203LF</t>
+  </si>
+  <si>
+    <t>J0_VOL</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>TMCMB1A107MTRF</t>
+  </si>
+  <si>
+    <t>270p</t>
+  </si>
+  <si>
+    <t>ECH-U1C271JXG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>F920G106MPA</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>0.047u</t>
+  </si>
+  <si>
+    <t>MKP2</t>
+  </si>
+  <si>
+    <t>MKS2D024701A00JI00</t>
+  </si>
+  <si>
+    <t>C8*</t>
+  </si>
+  <si>
+    <t>MKS2D031001A00KA00</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>ECH-U1H102JX5</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>S1A-13-F</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>282834-3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1003ELF</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-4701ELF</t>
+  </si>
+  <si>
+    <t>CR0603-FX-2002ELF</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>J0_BLEND</t>
+  </si>
+  <si>
+    <t>PDB183-GTR22-504A2</t>
+  </si>
+  <si>
+    <t>F0_BT</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>ECH-U1C103GX5</t>
+  </si>
+  <si>
+    <t>ECP-U1C104MA5</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1001ELF</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MC33178</t>
+  </si>
+  <si>
+    <t>MC33178DG</t>
+  </si>
+  <si>
+    <t>F0_BUF</t>
+  </si>
+  <si>
+    <t>TPSR105K020R6000</t>
+  </si>
+  <si>
+    <t>330k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3303ELF</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>CR0602-FX-1003ELF</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1502ELF</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1202ELF</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>F0_MID</t>
+  </si>
+  <si>
+    <t>4.7n</t>
   </si>
   <si>
     <t xml:space="preserve">ECH-U1C472GX5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Aggregate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58W9476M6R3C0151</t>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>T58W9476M6R3C0151</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -423,22 +418,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -454,7 +434,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -462,308 +442,551 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col min="1" max="2" width="8.21875"/>
+    <col min="3" max="3" width="10.5" style="1"/>
+    <col min="4" max="4" width="8.21875"/>
+    <col min="5" max="5" width="10.5" style="1"/>
+    <col min="6" max="6" width="18.88671875"/>
+    <col min="7" max="1025" width="8.21875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="E1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="G2">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0.686</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="G3">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.713</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="G4">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="G5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="G6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="G7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7">
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8"/>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="G8">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0"/>
+      <c r="C9"/>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="G9">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="0"/>
+      <c r="C10"/>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G10">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -772,18 +995,18 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H11">
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -792,18 +1015,18 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="G12">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -815,15 +1038,15 @@
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="G13">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -835,15 +1058,15 @@
       <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="G14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -855,15 +1078,15 @@
       <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="G15">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H15">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -872,18 +1095,18 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="G16">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -892,21 +1115,21 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="G17">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -915,258 +1138,258 @@
       <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>3.31</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>2.61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="0"/>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="G21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H21">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.576</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="G22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>0.439</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>0.214</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="G24">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H24">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>0.713</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="G25">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>0.439</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>0.214</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="G27">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="G28">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H28">
         <v>0.501</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="G29">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="G30">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H30">
         <v>0.442</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1178,96 +1401,96 @@
       <c r="F31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="G31">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="0"/>
+      <c r="C32"/>
       <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>1.52</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>1.4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="0"/>
+      <c r="C33"/>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="G33">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H33">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="0"/>
+      <c r="C34"/>
       <c r="E34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="G34">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="0"/>
+      <c r="C35"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="G35">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1276,18 +1499,18 @@
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="G36">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1296,18 +1519,18 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H37" s="0" t="n">
+      <c r="G37">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H37">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1316,18 +1539,18 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="G38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H38">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1336,18 +1559,18 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="G39">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1356,18 +1579,18 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="G40">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H40">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1376,18 +1599,18 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="G41">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H41">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1396,18 +1619,18 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="G42">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H42">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1419,15 +1642,15 @@
       <c r="F43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="G43">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H43">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1436,18 +1659,18 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="G44">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H44">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1456,185 +1679,185 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H45" s="0" t="n">
+      <c r="G45">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H45">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0" t="s">
+      <c r="C47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>8.63</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="G47">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="0"/>
-      <c r="E49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="C49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="G50">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="G51">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0.491</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="G52">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>0.439</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>0.214</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H54" s="0" t="n">
+      <c r="G54">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H54">
         <v>0.66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>0.439</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>0.214</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1643,18 +1866,18 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="G56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H56">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1663,18 +1886,18 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="G57">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H57">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1683,18 +1906,18 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="G58">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H58">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1703,18 +1926,18 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="G59">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H59">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1723,18 +1946,18 @@
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="G60">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H60">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1743,18 +1966,18 @@
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="G61">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H61">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
         <v>55</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1763,18 +1986,18 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="G62">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H62">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1786,178 +2009,178 @@
       <c r="F63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="G63">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H63">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="0"/>
+      <c r="E64"/>
       <c r="F64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>1.02</v>
       </c>
-      <c r="H64" s="0" t="n">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="H64">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="0"/>
-      <c r="E66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>99</v>
       </c>
-      <c r="G67" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H67" s="0" t="n">
+      <c r="G67">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H67">
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>99</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H68" s="0" t="n">
+      <c r="G68">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H68">
         <v>0.66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>0.37</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="G71">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72">
         <v>0.439</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72">
         <v>0.214</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1969,132 +2192,132 @@
       <c r="F73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="G73">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H73">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="0"/>
+      <c r="C74"/>
       <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74">
         <v>1.52</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74">
         <v>1.4</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="0"/>
+      <c r="C75"/>
       <c r="E75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="G75">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H75">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="0"/>
+      <c r="C76"/>
       <c r="E76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="G76">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H76">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="0"/>
+      <c r="C77"/>
       <c r="E77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="G77">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H77">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="0"/>
+      <c r="C78"/>
       <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="G78">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H78">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="0"/>
+      <c r="C79"/>
       <c r="E79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="G79">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H79">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2103,18 +2326,18 @@
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>109</v>
       </c>
-      <c r="G80" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="G80">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H80">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2123,18 +2346,18 @@
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>109</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="G81">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H81">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2143,18 +2366,18 @@
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>42</v>
       </c>
-      <c r="G82" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="G82">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H82">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>46</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2163,18 +2386,18 @@
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="G83">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H83">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2183,18 +2406,18 @@
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>89</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="G84">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H84">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2203,18 +2426,18 @@
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>89</v>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="G85">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H85">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2223,18 +2446,18 @@
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" t="s">
         <v>111</v>
       </c>
-      <c r="G86" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="G86">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H86">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2243,18 +2466,18 @@
       <c r="E87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="G87">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H87">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2266,15 +2489,15 @@
       <c r="F88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G88" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="G88">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H88">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2286,15 +2509,15 @@
       <c r="F89" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G89" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+      <c r="G89">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H89">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2303,18 +2526,18 @@
       <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="G90">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H90">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2323,18 +2546,18 @@
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="G91">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H91">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
         <v>118</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2343,18 +2566,18 @@
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>90</v>
       </c>
-      <c r="G92" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="G92">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H92">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2363,18 +2586,18 @@
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>90</v>
       </c>
-      <c r="G93" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="G93">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H93">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
         <v>120</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2383,18 +2606,18 @@
       <c r="E94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="G94">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H94">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2403,18 +2626,18 @@
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>101</v>
       </c>
-      <c r="G95" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="G95">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H95">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
         <v>122</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2423,78 +2646,78 @@
       <c r="E96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>54</v>
       </c>
-      <c r="G96" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="G96">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H96">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>103</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="0"/>
+      <c r="E97"/>
       <c r="F97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97">
         <v>1.02</v>
       </c>
-      <c r="H97" s="0" t="n">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="H97">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="0"/>
-      <c r="E99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="C99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>98</v>
       </c>
-      <c r="G100" s="0" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0.491</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="G100">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H100">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -2503,18 +2726,18 @@
       <c r="F101" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G101" s="0" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>0.472</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="G101">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H101">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2523,18 +2746,18 @@
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" t="s">
         <v>117</v>
       </c>
-      <c r="G102" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="G102">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H102">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
         <v>40</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2543,21 +2766,20 @@
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>0.029</v>
+      <c r="G103">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H103">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2565,29 +2787,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A82" activeCellId="0" sqref="A82"/>
+    <sheetView topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="4" width="11.5"/>
+    <col min="5" max="5" width="21.27734375"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -2603,17 +2822,17 @@
       <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="5">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.501</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2629,17 +2848,17 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2655,15 +2874,15 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.601</v>
+      <c r="F4" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.60099999999999998</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2679,15 +2898,15 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.601</v>
+      <c r="F5" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.60099999999999998</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2703,17 +2922,17 @@
       <c r="E6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="F6" s="5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2729,17 +2948,17 @@
       <c r="E7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.66</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2755,15 +2974,15 @@
       <c r="E8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.66</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2779,15 +2998,15 @@
       <c r="E9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.66</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2803,17 +3022,17 @@
       <c r="E10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="F10" s="5" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="H10" s="5" t="n">
+      <c r="F10" s="5">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="H10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2829,17 +3048,17 @@
       <c r="E11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="H11" s="5" t="n">
+      <c r="F11" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H11" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2855,15 +3074,15 @@
       <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0.491</v>
+      <c r="F12" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.49099999999999999</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -2879,17 +3098,17 @@
       <c r="E13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2905,15 +3124,15 @@
       <c r="E14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.446</v>
+      <c r="F14" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -2929,15 +3148,15 @@
       <c r="E15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.446</v>
+      <c r="F15" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2953,15 +3172,15 @@
       <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0.446</v>
+      <c r="F16" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -2977,17 +3196,17 @@
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.442</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3003,17 +3222,17 @@
       <c r="E18" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G18" s="5" t="n">
-        <v>0.856</v>
-      </c>
-      <c r="H18" s="5" t="n">
+      <c r="F18" s="5">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="H18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -3029,15 +3248,15 @@
       <c r="E19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5">
         <v>0.37</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3057,7 +3276,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3073,17 +3292,17 @@
       <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="H21" s="5" t="n">
+      <c r="F21" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3099,17 +3318,17 @@
       <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>0.439</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="5">
         <v>0.214</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -3125,15 +3344,15 @@
       <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="5">
         <v>0.439</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="5">
         <v>0.214</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -3149,15 +3368,15 @@
       <c r="E24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>0.439</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="5">
         <v>0.214</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -3173,15 +3392,15 @@
       <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>0.439</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>0.214</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -3197,15 +3416,15 @@
       <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="5">
         <v>0.439</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="5">
         <v>0.214</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -3221,15 +3440,15 @@
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <v>0.686</v>
+      <c r="F27" s="5">
+        <v>0.68600000000000005</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -3245,17 +3464,17 @@
       <c r="E28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="H28" s="5" t="n">
+      <c r="F28" s="5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
@@ -3271,17 +3490,17 @@
       <c r="E29" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G29" s="5" t="n">
+      <c r="F29" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G29" s="5">
         <v>0.72</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3297,15 +3516,15 @@
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>0.713</v>
+      <c r="F30" s="5">
+        <v>0.71299999999999997</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3321,13 +3540,13 @@
       <c r="E31" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>0.713</v>
+      <c r="F31" s="5">
+        <v>0.71299999999999997</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3341,17 +3560,17 @@
       <c r="E33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G33" s="5" t="n">
+      <c r="F33" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G33" s="5">
         <v>0.04</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3365,15 +3584,15 @@
       <c r="E34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G34" s="5" t="n">
+      <c r="F34" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G34" s="5">
         <v>0.04</v>
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -3387,17 +3606,17 @@
       <c r="E35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>92</v>
       </c>
@@ -3411,15 +3630,15 @@
       <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>0.029</v>
+      <c r="F36" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3433,15 +3652,15 @@
       <c r="E37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G37" s="5" t="n">
-        <v>0.029</v>
+      <c r="F37" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -3455,17 +3674,17 @@
       <c r="E38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>91</v>
       </c>
@@ -3479,15 +3698,15 @@
       <c r="E39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>0.049</v>
+      <c r="F39" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -3501,15 +3720,15 @@
       <c r="E40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>0.049</v>
+      <c r="F40" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -3523,15 +3742,15 @@
       <c r="E41" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G41" s="5" t="n">
-        <v>0.049</v>
+      <c r="F41" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -3545,17 +3764,17 @@
       <c r="E42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G42" s="5" t="n">
+      <c r="F42" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G42" s="5">
         <v>0.04</v>
       </c>
-      <c r="H42" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>55</v>
       </c>
@@ -3569,15 +3788,15 @@
       <c r="E43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G43" s="5" t="n">
-        <v>0.034</v>
+      <c r="F43" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3591,15 +3810,15 @@
       <c r="E44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G44" s="5" t="n">
-        <v>0.034</v>
+      <c r="F44" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -3613,17 +3832,17 @@
       <c r="E45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G45" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H45" s="5" t="n">
+      <c r="F45" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H45" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
@@ -3637,15 +3856,15 @@
       <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G46" s="5" t="n">
-        <v>0.029</v>
+      <c r="F46" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -3659,15 +3878,15 @@
       <c r="E47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <v>0.029</v>
+      <c r="F47" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -3681,15 +3900,15 @@
       <c r="E48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G48" s="5" t="n">
-        <v>0.029</v>
+      <c r="F48" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>114</v>
       </c>
@@ -3703,15 +3922,15 @@
       <c r="E49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G49" s="5" t="n">
-        <v>0.029</v>
+      <c r="F49" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3725,15 +3944,15 @@
       <c r="E50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G50" s="5" t="n">
-        <v>0.029</v>
+      <c r="F50" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -3747,17 +3966,17 @@
       <c r="E51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G51" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H51" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -3771,15 +3990,15 @@
       <c r="E52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G52" s="5" t="n">
-        <v>0.029</v>
+      <c r="F52" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
@@ -3793,15 +4012,15 @@
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G53" s="5" t="n">
-        <v>0.029</v>
+      <c r="F53" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>92</v>
       </c>
@@ -3815,17 +4034,17 @@
       <c r="E54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="H54" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>49</v>
       </c>
@@ -3839,17 +4058,17 @@
       <c r="E55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H55" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -3863,15 +4082,15 @@
       <c r="E56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>0.029</v>
+      <c r="F56" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>121</v>
       </c>
@@ -3885,15 +4104,15 @@
       <c r="E57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G57" s="5" t="n">
-        <v>0.029</v>
+      <c r="F57" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
@@ -3907,17 +4126,17 @@
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H58" s="5" t="n">
+      <c r="F58" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G58" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H58" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
@@ -3931,15 +4150,15 @@
       <c r="E59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <v>0.034</v>
+      <c r="F59" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G59" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
@@ -3953,15 +4172,15 @@
       <c r="E60" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <v>0.034</v>
+      <c r="F60" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G60" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>43</v>
       </c>
@@ -3975,15 +4194,15 @@
       <c r="E61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G61" s="5" t="n">
-        <v>0.034</v>
+      <c r="F61" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>46</v>
       </c>
@@ -3997,15 +4216,15 @@
       <c r="E62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G62" s="5" t="n">
-        <v>0.034</v>
+      <c r="F62" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G62" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>55</v>
       </c>
@@ -4019,17 +4238,17 @@
       <c r="E63" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H63" s="5" t="n">
+      <c r="F63" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H63" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
@@ -4043,15 +4262,15 @@
       <c r="E64" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G64" s="5" t="n">
-        <v>0.029</v>
+      <c r="F64" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
@@ -4065,15 +4284,15 @@
       <c r="E65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>0.029</v>
+      <c r="F65" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -4087,15 +4306,15 @@
       <c r="E66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G66" s="5" t="n">
-        <v>0.029</v>
+      <c r="F66" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
@@ -4109,15 +4328,15 @@
       <c r="E67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G67" s="5" t="n">
-        <v>0.029</v>
+      <c r="F67" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>46</v>
       </c>
@@ -4131,17 +4350,17 @@
       <c r="E68" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G68" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H68" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G68" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>37</v>
       </c>
@@ -4155,17 +4374,17 @@
       <c r="E69" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G69" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H69" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H69" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>40</v>
       </c>
@@ -4179,15 +4398,15 @@
       <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G70" s="5" t="n">
-        <v>0.034</v>
+      <c r="F70" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G70" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>49</v>
       </c>
@@ -4201,17 +4420,17 @@
       <c r="E71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F71" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G71" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H71" s="5" t="n">
+      <c r="F71" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H71" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>40</v>
       </c>
@@ -4225,15 +4444,15 @@
       <c r="E72" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G72" s="5" t="n">
-        <v>0.012</v>
+      <c r="F72" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1.2E-2</v>
       </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>46</v>
       </c>
@@ -4247,15 +4466,15 @@
       <c r="E73" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G73" s="5" t="n">
-        <v>0.012</v>
+      <c r="F73" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1.2E-2</v>
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>49</v>
       </c>
@@ -4269,17 +4488,17 @@
       <c r="E74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G74" s="5" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H74" s="5" t="n">
+      <c r="F74" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G74" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H74" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
@@ -4293,15 +4512,15 @@
       <c r="E75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G75" s="5" t="n">
-        <v>0.036</v>
+      <c r="F75" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G75" s="5">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>43</v>
       </c>
@@ -4315,166 +4534,165 @@
       <c r="E76" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G76" s="5" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="H76" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F76" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G76" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H76" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>27</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>30</v>
       </c>
-      <c r="G78" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="G78">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H78">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
         <v>31</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>30</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="G79">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H79">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>28</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>84</v>
       </c>
-      <c r="G80" s="0" t="n">
+      <c r="G80">
         <v>1.52</v>
       </c>
-      <c r="H80" s="0" t="n">
+      <c r="H80">
         <v>1.4</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
         <v>31</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>30</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="G81">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H81">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>27</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" t="s">
         <v>28</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>84</v>
       </c>
-      <c r="G82" s="0" t="n">
+      <c r="G82">
         <v>1.52</v>
       </c>
-      <c r="H82" s="0" t="n">
+      <c r="H82">
         <v>1.4</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>31</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>30</v>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="G83">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H83">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
         <v>31</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>30</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="G84">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H84">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
         <v>31</v>
       </c>
       <c r="E85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>30</v>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0.631</v>
+      <c r="G85">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H85">
+        <v>0.63100000000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="991" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,410 +20,409 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="131">
-  <si>
-    <t xml:space="preserve">J0_BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TANT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0805</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAJR104M020RNJ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CERAMIC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C101JX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58W9476M6R3C0150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.7n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FILM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1H272GX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCA1210C105M-G2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECP-U1C224MA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.54mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282834-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MMBF5457</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5MEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1504ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1MEG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1004ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.8k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-6801ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.9k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-3901ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1000ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1002ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.8k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1801ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RV1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3296W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3296W-1-203LF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J0_VOL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TMCMB1A107MTRF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">270p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C271JXG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F920G106MPA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.047u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKP2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS2D024701A00JI00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS2D031001A00KA00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1H102JX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1A-13-F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">282834-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1003ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-4701ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-2002ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J0_BLEND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PDB183-GTR22-504A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_BT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECH-U1C103GX5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ECP-U1C104MA5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1001ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC33178</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MC33178DG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_BUF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TPSR105K020R6000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">330k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-3303ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">47k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0602-FX-1003ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1502ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CR0603-FX-1202ELF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F0_MID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7n</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="132">
+  <si>
+    <t>J0_BT</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>0.1u</t>
+  </si>
+  <si>
+    <t>TANT</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>TAJR104M020RNJ</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>27p</t>
+  </si>
+  <si>
+    <t>CERAMIC</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>ECH-U1C101JX5</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>47u</t>
+  </si>
+  <si>
+    <t>T58W9476M6R3C0150</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>2.7n</t>
+  </si>
+  <si>
+    <t>FILM</t>
+  </si>
+  <si>
+    <t>ECH-U1H272GX5</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>1u</t>
+  </si>
+  <si>
+    <t>1210</t>
+  </si>
+  <si>
+    <t>FCA1210C105M-G2</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>470n</t>
+  </si>
+  <si>
+    <t>1206</t>
+  </si>
+  <si>
+    <t>ECP-U1C224MA5</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>2.54mm</t>
+  </si>
+  <si>
+    <t>282834-2</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>SOT23</t>
+  </si>
+  <si>
+    <t>MMBF5457</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>1.5MEG</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1504ELF</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>1MEG</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1004ELF</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>6.8k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-6801ELF</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>3.9k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3901ELF</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1000ELF</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1002ELF</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>1.8k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1801ELF</t>
+  </si>
+  <si>
+    <t>RV</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>3296W</t>
+  </si>
+  <si>
+    <t>3296W-1-203LF</t>
+  </si>
+  <si>
+    <t>J0_VOL</t>
+  </si>
+  <si>
+    <t>100u</t>
+  </si>
+  <si>
+    <t>TMCMB1A107MTRF</t>
+  </si>
+  <si>
+    <t>270p</t>
+  </si>
+  <si>
+    <t>ECH-U1C271JXG</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>10u</t>
+  </si>
+  <si>
+    <t>F920G106MPA</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>0.047u</t>
+  </si>
+  <si>
+    <t>MKP2</t>
+  </si>
+  <si>
+    <t>MKS2D024701A00JI00</t>
+  </si>
+  <si>
+    <t>C8*</t>
+  </si>
+  <si>
+    <t>MKS2D031001A00KA00</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>1n</t>
+  </si>
+  <si>
+    <t>ECH-U1H102JX5</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>S1A-13-F</t>
+  </si>
+  <si>
+    <t>SMA</t>
+  </si>
+  <si>
+    <t>282834-3</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1003ELF</t>
+  </si>
+  <si>
+    <t>4.7k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-4701ELF</t>
+  </si>
+  <si>
+    <t>CR0603-FX-2002ELF</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>J0_BLEND</t>
+  </si>
+  <si>
+    <t>PDB183-GTR22-504A2</t>
+  </si>
+  <si>
+    <t>F0_BT</t>
+  </si>
+  <si>
+    <t>10n</t>
+  </si>
+  <si>
+    <t>ECH-U1C103GX5</t>
+  </si>
+  <si>
+    <t>ECP-U1C104MA5</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1001ELF</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>MC33178</t>
+  </si>
+  <si>
+    <t>MC33178DG</t>
+  </si>
+  <si>
+    <t>F0_BUF</t>
+  </si>
+  <si>
+    <t>TPSR105K020R6000</t>
+  </si>
+  <si>
+    <t>330k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-3303ELF</t>
+  </si>
+  <si>
+    <t>47k</t>
+  </si>
+  <si>
+    <t>CR0602-FX-1003ELF</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1502ELF</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>CR0603-FX-1202ELF</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>F0_MID</t>
+  </si>
+  <si>
+    <t>4.7n</t>
   </si>
   <si>
     <t xml:space="preserve">ECH-U1C472GX5 </t>
   </si>
   <si>
-    <t xml:space="preserve">Aggregate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.5mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS02-1/50/10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKS0C034700E00KSSD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T58W9476M6R3C0151</t>
+    <t>Aggregate</t>
+  </si>
+  <si>
+    <t>2.5mm</t>
+  </si>
+  <si>
+    <t>MKS02-1/50/10</t>
+  </si>
+  <si>
+    <t>MKS0C034700E00KSSD</t>
+  </si>
+  <si>
+    <t>T58W9476M6R3C0151</t>
+  </si>
+  <si>
+    <t>12106D107MAT2A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -432,22 +430,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -463,7 +446,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -471,308 +454,551 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H103"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.3"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.530612244898"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="18.8979591836735"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.23469387755102"/>
+    <col min="1" max="2" width="8.21875"/>
+    <col min="3" max="3" width="10.5" style="1"/>
+    <col min="4" max="4" width="8.21875"/>
+    <col min="5" max="5" width="10.5" style="1"/>
+    <col min="6" max="6" width="18.88671875"/>
+    <col min="7" max="1025" width="8.21875"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="0"/>
-      <c r="E1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1"/>
+      <c r="E1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
+      <c r="G2">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H2">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="0" t="n">
-        <v>0.686</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
+      <c r="G3">
+        <v>0.68600000000000005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="0" t="n">
-        <v>0.713</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
+      <c r="G4">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>0.457</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
+      <c r="G5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0.45700000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="0" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>0.856</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
+      <c r="G6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="H6">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H7" s="0" t="n">
+      <c r="G7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7">
         <v>0.72</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0"/>
+      <c r="C8"/>
       <c r="E8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
+      <c r="G8">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H8">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0"/>
+      <c r="C9"/>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="G9">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H9">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="0"/>
+      <c r="C10"/>
       <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="G10">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H10">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -781,18 +1007,18 @@
       <c r="E11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H11" s="0" t="n">
+      <c r="G11">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H11">
         <v>0.04</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -801,18 +1027,18 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H12" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
+      <c r="G12">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H12">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -824,15 +1050,15 @@
       <c r="F13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>0.077</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
+      <c r="G13">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H13">
+        <v>7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -844,15 +1070,15 @@
       <c r="F14" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
+      <c r="G14">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H14">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -864,15 +1090,15 @@
       <c r="F15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="G15">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H15">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -881,18 +1107,18 @@
       <c r="E16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" t="s">
         <v>54</v>
       </c>
-      <c r="G16" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H16" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
+      <c r="G16">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H16">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -901,21 +1127,21 @@
       <c r="E17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="G17">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H17">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" t="s">
         <v>59</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -924,258 +1150,258 @@
       <c r="E18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="G18">
         <v>3.31</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18">
         <v>2.61</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="0"/>
-      <c r="E20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="C20"/>
+      <c r="E20"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="D21" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H21" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
+      <c r="G21">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H21">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="D22" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.576</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
+      <c r="G22">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="H22">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B23" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="D23" t="s">
         <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="G23">
         <v>0.439</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23">
         <v>0.214</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" t="s">
         <v>6</v>
       </c>
-      <c r="G24" s="0" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="H24" s="0" t="n">
-        <v>0.601</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
+      <c r="G24">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="H24">
+        <v>0.60099999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="D25" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" t="s">
         <v>14</v>
       </c>
-      <c r="G25" s="0" t="n">
-        <v>0.713</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
+      <c r="G25">
+        <v>0.71299999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="D26" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="0" t="n">
+      <c r="G26">
         <v>0.439</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26">
         <v>0.214</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
         <v>68</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="D27" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H27" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
+      <c r="G27">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H27">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B28" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="D28" t="s">
         <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="0" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="H28" s="0" t="n">
+      <c r="G28">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="H28">
         <v>0.501</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B29" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="D29" t="s">
         <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="0" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="H29" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
+      <c r="G29">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="H29">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="D30" t="s">
         <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" t="s">
         <v>79</v>
       </c>
-      <c r="G30" s="0" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="H30" s="0" t="n">
+      <c r="G30">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="H30">
         <v>0.442</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
         <v>80</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" t="s">
         <v>81</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1187,96 +1413,96 @@
       <c r="F31" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G31" s="0" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="H31" s="0" t="n">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="G31">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
         <v>27</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" t="s">
         <v>28</v>
       </c>
-      <c r="C32" s="0"/>
+      <c r="C32"/>
       <c r="E32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="G32">
         <v>1.52</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32">
         <v>1.4</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="0"/>
+      <c r="C33"/>
       <c r="E33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" t="s">
         <v>30</v>
       </c>
-      <c r="G33" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="G33">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H33">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="0" t="s">
+      <c r="B34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="0"/>
+      <c r="C34"/>
       <c r="E34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="F34" t="s">
         <v>35</v>
       </c>
-      <c r="G34" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
+      <c r="G34">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B35" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="0"/>
+      <c r="C35"/>
       <c r="E35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="F35" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H35" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="G35">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H35">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1285,18 +1511,18 @@
       <c r="E36" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="F36" t="s">
         <v>42</v>
       </c>
-      <c r="G36" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
+      <c r="G36">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B37" t="s">
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1305,18 +1531,18 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="F37" t="s">
         <v>87</v>
       </c>
-      <c r="G37" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H37" s="0" t="n">
+      <c r="G37">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H37">
         <v>0.04</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B38" t="s">
         <v>43</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1325,18 +1551,18 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="F38" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="G38">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H38">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1345,18 +1571,18 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="F39" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="G39">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H39">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B40" t="s">
         <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1365,18 +1591,18 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="F40" t="s">
         <v>89</v>
       </c>
-      <c r="G40" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
+      <c r="G40">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H40">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B41" t="s">
         <v>52</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1385,18 +1611,18 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="F41" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
+      <c r="G41">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H41">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B42" t="s">
         <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1405,18 +1631,18 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" t="s">
         <v>90</v>
       </c>
-      <c r="G42" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
+      <c r="G42">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H42">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B43" t="s">
         <v>91</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1428,15 +1654,15 @@
       <c r="F43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
+      <c r="G43">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H43">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B44" t="s">
         <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1445,18 +1671,18 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" t="s">
         <v>57</v>
       </c>
-      <c r="G44" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
+      <c r="G44">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H44">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
         <v>93</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1465,185 +1691,185 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" t="s">
         <v>39</v>
       </c>
-      <c r="G45" s="0" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="H45" s="0" t="n">
+      <c r="G45">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H45">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" t="s">
         <v>59</v>
       </c>
-      <c r="C47" s="0"/>
-      <c r="E47" s="0"/>
-      <c r="F47" s="0" t="s">
+      <c r="C47"/>
+      <c r="E47"/>
+      <c r="F47" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="0" t="n">
-        <v>8.63</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="G47">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="0"/>
-      <c r="E49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="C49"/>
+      <c r="E49"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" t="s">
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="D50" t="s">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F50" s="0" t="s">
+      <c r="F50" t="s">
         <v>70</v>
       </c>
-      <c r="G50" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
+      <c r="G50">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H50">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B51" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="D51" t="s">
         <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="F51" t="s">
         <v>70</v>
       </c>
-      <c r="G51" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H51" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
+      <c r="G51">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B52" t="s">
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="F52" t="s">
         <v>98</v>
       </c>
-      <c r="G52" s="0" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H52" s="0" t="n">
-        <v>0.491</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
+      <c r="G52">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H52">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="D53" t="s">
         <v>17</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="F53" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="0" t="n">
+      <c r="G53">
         <v>0.439</v>
       </c>
-      <c r="H53" s="0" t="n">
+      <c r="H53">
         <v>0.214</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B54" t="s">
         <v>19</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="D54" t="s">
         <v>17</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="F54" t="s">
         <v>99</v>
       </c>
-      <c r="G54" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H54" s="0" t="n">
+      <c r="G54">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H54">
         <v>0.66</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B55" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="D55" t="s">
         <v>17</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="F55" t="s">
         <v>67</v>
       </c>
-      <c r="G55" s="0" t="n">
+      <c r="G55">
         <v>0.439</v>
       </c>
-      <c r="H55" s="0" t="n">
+      <c r="H55">
         <v>0.214</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>36</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" t="s">
         <v>37</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1652,18 +1878,18 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F56" s="0" t="s">
+      <c r="F56" t="s">
         <v>57</v>
       </c>
-      <c r="G56" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H56" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
+      <c r="G56">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H56">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B57" t="s">
         <v>40</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -1672,18 +1898,18 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="0" t="s">
+      <c r="F57" t="s">
         <v>89</v>
       </c>
-      <c r="G57" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H57" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="G57">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H57">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B58" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -1692,18 +1918,18 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="F58" t="s">
         <v>54</v>
       </c>
-      <c r="G58" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
+      <c r="G58">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H58">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B59" t="s">
         <v>46</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -1712,18 +1938,18 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F59" s="0" t="s">
+      <c r="F59" t="s">
         <v>89</v>
       </c>
-      <c r="G59" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
+      <c r="G59">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H59">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B60" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -1732,18 +1958,18 @@
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="0" t="s">
+      <c r="F60" t="s">
         <v>101</v>
       </c>
-      <c r="G60" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="G60">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H60">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B61" t="s">
         <v>52</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -1752,18 +1978,18 @@
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F61" s="0" t="s">
+      <c r="F61" t="s">
         <v>90</v>
       </c>
-      <c r="G61" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H61" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
+      <c r="G61">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H61">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B62" t="s">
         <v>55</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -1772,18 +1998,18 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="F62" t="s">
         <v>90</v>
       </c>
-      <c r="G62" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
+      <c r="G62">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H62">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B63" t="s">
         <v>91</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -1795,178 +2021,178 @@
       <c r="F63" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G63" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="G63">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H63">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>102</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" t="s">
         <v>103</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E64" s="0"/>
+      <c r="E64"/>
       <c r="F64" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G64" s="0" t="n">
+      <c r="G64">
         <v>1.02</v>
       </c>
-      <c r="H64" s="0" t="n">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="H64">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="0"/>
-      <c r="E66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="C66"/>
+      <c r="E66"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
         <v>1</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" t="s">
         <v>2</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="D67" t="s">
         <v>17</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="F67" t="s">
         <v>99</v>
       </c>
-      <c r="G67" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H67" s="0" t="n">
+      <c r="G67">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H67">
         <v>0.66</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B68" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="D68" t="s">
         <v>17</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F68" s="0" t="s">
+      <c r="F68" t="s">
         <v>99</v>
       </c>
-      <c r="G68" s="0" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H68" s="0" t="n">
+      <c r="G68">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H68">
         <v>0.66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="D69" t="s">
         <v>4</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F69" s="0" t="s">
+      <c r="F69" t="s">
         <v>107</v>
       </c>
-      <c r="G69" s="0" t="n">
+      <c r="G69">
         <v>0.37</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B70" t="s">
         <v>15</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="D70" t="s">
         <v>4</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F70" s="0" t="s">
+      <c r="F70" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="D71" t="s">
         <v>4</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="F71" t="s">
         <v>70</v>
       </c>
-      <c r="G71" s="0" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>0.446</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
+      <c r="G71">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H71">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="D72" t="s">
         <v>17</v>
       </c>
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="0" t="s">
+      <c r="F72" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="0" t="n">
+      <c r="G72">
         <v>0.439</v>
       </c>
-      <c r="H72" s="0" t="n">
+      <c r="H72">
         <v>0.214</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
         <v>80</v>
       </c>
-      <c r="B73" s="0" t="s">
+      <c r="B73" t="s">
         <v>81</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -1978,132 +2204,132 @@
       <c r="F73" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G73" s="0" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <v>0.259</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="G73">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="H73">
+        <v>0.25900000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
         <v>27</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" t="s">
         <v>28</v>
       </c>
-      <c r="C74" s="0"/>
+      <c r="C74"/>
       <c r="E74" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F74" s="0" t="s">
+      <c r="F74" t="s">
         <v>84</v>
       </c>
-      <c r="G74" s="0" t="n">
+      <c r="G74">
         <v>1.52</v>
       </c>
-      <c r="H74" s="0" t="n">
+      <c r="H74">
         <v>1.4</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B75" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="0"/>
+      <c r="C75"/>
       <c r="E75" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F75" s="0" t="s">
+      <c r="F75" t="s">
         <v>30</v>
       </c>
-      <c r="G75" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
+      <c r="G75">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H75">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B76" t="s">
         <v>31</v>
       </c>
-      <c r="C76" s="0"/>
+      <c r="C76"/>
       <c r="E76" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="F76" t="s">
         <v>30</v>
       </c>
-      <c r="G76" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H76" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
+      <c r="G76">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H76">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B77" t="s">
         <v>31</v>
       </c>
-      <c r="C77" s="0"/>
+      <c r="C77"/>
       <c r="E77" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="F77" t="s">
         <v>30</v>
       </c>
-      <c r="G77" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="G77">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="H77">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>32</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" t="s">
         <v>33</v>
       </c>
-      <c r="C78" s="0"/>
+      <c r="C78"/>
       <c r="E78" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="F78" t="s">
         <v>35</v>
       </c>
-      <c r="G78" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H78" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
+      <c r="G78">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H78">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B79" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="0"/>
+      <c r="C79"/>
       <c r="E79" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="F79" t="s">
         <v>35</v>
       </c>
-      <c r="G79" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="G79">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H79">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>36</v>
       </c>
-      <c r="B80" s="0" t="s">
+      <c r="B80" t="s">
         <v>37</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2112,18 +2338,18 @@
       <c r="E80" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="F80" t="s">
         <v>109</v>
       </c>
-      <c r="G80" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
+      <c r="G80">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H80">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B81" t="s">
         <v>40</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2132,18 +2358,18 @@
       <c r="E81" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="F81" t="s">
         <v>109</v>
       </c>
-      <c r="G81" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
+      <c r="G81">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H81">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B82" t="s">
         <v>43</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2152,18 +2378,18 @@
       <c r="E82" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="F82" t="s">
         <v>42</v>
       </c>
-      <c r="G82" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
+      <c r="G82">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H82">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B83" t="s">
         <v>46</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2172,18 +2398,18 @@
       <c r="E83" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="F83" t="s">
         <v>42</v>
       </c>
-      <c r="G83" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
+      <c r="G83">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H83">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B84" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2192,18 +2418,18 @@
       <c r="E84" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="F84" t="s">
         <v>89</v>
       </c>
-      <c r="G84" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
+      <c r="G84">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H84">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B85" t="s">
         <v>52</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2212,18 +2438,18 @@
       <c r="E85" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="F85" t="s">
         <v>89</v>
       </c>
-      <c r="G85" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <v>0.036</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
+      <c r="G85">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H85">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B86" t="s">
         <v>55</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2232,18 +2458,18 @@
       <c r="E86" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="F86" t="s">
         <v>111</v>
       </c>
-      <c r="G86" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H86" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
+      <c r="G86">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H86">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2252,18 +2478,18 @@
       <c r="E87" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="F87" t="s">
         <v>111</v>
       </c>
-      <c r="G87" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <v>0.034</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
+      <c r="G87">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H87">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2275,15 +2501,15 @@
       <c r="F88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G88" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H88" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
+      <c r="G88">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H88">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2295,15 +2521,15 @@
       <c r="F89" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G89" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>0.049</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
+      <c r="G89">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H89">
+        <v>4.9000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B90" t="s">
         <v>114</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -2312,18 +2538,18 @@
       <c r="E90" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F90" s="0" t="s">
+      <c r="F90" t="s">
         <v>54</v>
       </c>
-      <c r="G90" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
+      <c r="G90">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H90">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B91" t="s">
         <v>115</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -2332,18 +2558,18 @@
       <c r="E91" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F91" s="0" t="s">
+      <c r="F91" t="s">
         <v>117</v>
       </c>
-      <c r="G91" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H91" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
+      <c r="G91">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H91">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B92" t="s">
         <v>118</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -2352,18 +2578,18 @@
       <c r="E92" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="F92" t="s">
         <v>90</v>
       </c>
-      <c r="G92" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H92" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
+      <c r="G92">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H92">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B93" t="s">
         <v>119</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -2372,18 +2598,18 @@
       <c r="E93" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="F93" t="s">
         <v>90</v>
       </c>
-      <c r="G93" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
+      <c r="G93">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H93">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B94" t="s">
         <v>120</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -2392,18 +2618,18 @@
       <c r="E94" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F94" s="0" t="s">
+      <c r="F94" t="s">
         <v>101</v>
       </c>
-      <c r="G94" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
+      <c r="G94">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H94">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B95" t="s">
         <v>121</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -2412,18 +2638,18 @@
       <c r="E95" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F95" s="0" t="s">
+      <c r="F95" t="s">
         <v>101</v>
       </c>
-      <c r="G95" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H95" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
+      <c r="G95">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H95">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B96" t="s">
         <v>122</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2432,78 +2658,78 @@
       <c r="E96" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="F96" t="s">
         <v>54</v>
       </c>
-      <c r="G96" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="G96">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H96">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
         <v>102</v>
       </c>
-      <c r="B97" s="0" t="s">
+      <c r="B97" t="s">
         <v>103</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E97" s="0"/>
+      <c r="E97"/>
       <c r="F97" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="G97" s="0" t="n">
+      <c r="G97">
         <v>1.02</v>
       </c>
-      <c r="H97" s="0" t="n">
-        <v>0.836</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="H97">
+        <v>0.83599999999999997</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
         <v>123</v>
       </c>
-      <c r="C99" s="0"/>
-      <c r="E99" s="0"/>
-    </row>
-    <row r="100" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="C99"/>
+      <c r="E99"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>1</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" t="s">
         <v>2</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="D100" t="s">
         <v>17</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="F100" t="s">
         <v>98</v>
       </c>
-      <c r="G100" s="0" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>0.491</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
+      <c r="G100">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H100">
+        <v>0.49099999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B101" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="D101" t="s">
         <v>17</v>
       </c>
       <c r="E101" s="1" t="s">
@@ -2512,18 +2738,18 @@
       <c r="F101" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G101" s="0" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="H101" s="0" t="n">
-        <v>0.472</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="G101">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="H101">
+        <v>0.47199999999999998</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A102" t="s">
         <v>36</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" t="s">
         <v>37</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2532,18 +2758,18 @@
       <c r="E102" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="F102" t="s">
         <v>117</v>
       </c>
-      <c r="G102" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H102" s="0" t="n">
-        <v>0.029</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
+      <c r="G102">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H102">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B103" t="s">
         <v>40</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2552,21 +2778,20 @@
       <c r="E103" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="F103" t="s">
         <v>117</v>
       </c>
-      <c r="G103" s="0" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="H103" s="0" t="n">
-        <v>0.029</v>
+      <c r="G103">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="H103">
+        <v>2.9000000000000001E-2</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -2574,29 +2799,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.3010204081633"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col min="1" max="4" width="11.5"/>
+    <col min="5" max="5" width="21.27734375"/>
+    <col min="6" max="1025" width="11.5"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
         <v>71</v>
       </c>
@@ -2612,17 +2834,17 @@
       <c r="E2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="5" t="n">
-        <v>0.563</v>
-      </c>
-      <c r="G2" s="5" t="n">
+      <c r="F2" s="5">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="G2" s="5">
         <v>0.501</v>
       </c>
-      <c r="H2" s="5" t="n">
+      <c r="H2" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
@@ -2638,17 +2860,17 @@
       <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0.601</v>
-      </c>
-      <c r="H3" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F3" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -2664,15 +2886,15 @@
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0.601</v>
+      <c r="F4" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.60099999999999998</v>
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>15</v>
       </c>
@@ -2688,15 +2910,15 @@
       <c r="E5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0.601</v>
+      <c r="F5" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.60099999999999998</v>
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A6" s="5" t="s">
         <v>75</v>
       </c>
@@ -2712,17 +2934,17 @@
       <c r="E6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="5" t="n">
-        <v>0.206</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0.199</v>
-      </c>
-      <c r="H6" s="5" t="n">
+      <c r="F6" s="5">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="H6" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>19</v>
       </c>
@@ -2738,17 +2960,17 @@
       <c r="E7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F7" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G7" s="5">
         <v>0.66</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -2764,15 +2986,15 @@
       <c r="E8" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G8" s="5" t="n">
+      <c r="F8" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8" s="5">
         <v>0.66</v>
       </c>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -2788,15 +3010,15 @@
       <c r="E9" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="5" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="G9" s="5" t="n">
+      <c r="F9" s="5">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G9" s="5">
         <v>0.66</v>
       </c>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
@@ -2810,19 +3032,19 @@
         <v>5</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="5" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="G10" s="5" t="n">
-        <v>0.576</v>
-      </c>
-      <c r="H10" s="5" t="n">
+        <v>131</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.94699999999999995</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="H10" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A11" s="5" t="s">
         <v>12</v>
       </c>
@@ -2838,17 +3060,17 @@
       <c r="E11" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="5" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="G11" s="5" t="n">
-        <v>0.491</v>
-      </c>
-      <c r="H11" s="5" t="n">
+      <c r="F11" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H11" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A12" s="5" t="s">
         <v>2</v>
       </c>
@@ -2864,15 +3086,15 @@
       <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="5" t="n">
-        <v>0.864</v>
-      </c>
-      <c r="G12" s="5" t="n">
-        <v>0.491</v>
+      <c r="F12" s="5">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.49099999999999999</v>
       </c>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A13" s="5" t="s">
         <v>68</v>
       </c>
@@ -2888,17 +3110,17 @@
       <c r="E13" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G13" s="5" t="n">
-        <v>0.446</v>
-      </c>
-      <c r="H13" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="H13" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>2</v>
       </c>
@@ -2914,15 +3136,15 @@
       <c r="E14" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G14" s="5" t="n">
-        <v>0.446</v>
+      <c r="F14" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A15" s="5" t="s">
         <v>7</v>
       </c>
@@ -2938,15 +3160,15 @@
       <c r="E15" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G15" s="5" t="n">
-        <v>0.446</v>
+      <c r="F15" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>19</v>
       </c>
@@ -2962,15 +3184,15 @@
       <c r="E16" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="5" t="n">
-        <v>0.508</v>
-      </c>
-      <c r="G16" s="5" t="n">
-        <v>0.446</v>
+      <c r="F16" s="5">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.44600000000000001</v>
       </c>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A17" s="5" t="s">
         <v>77</v>
       </c>
@@ -2986,17 +3208,17 @@
       <c r="E17" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F17" s="5" t="n">
-        <v>0.768</v>
-      </c>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="5">
+        <v>0.76800000000000002</v>
+      </c>
+      <c r="G17" s="5">
         <v>0.442</v>
       </c>
-      <c r="H17" s="5" t="n">
+      <c r="H17" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>19</v>
       </c>
@@ -3012,17 +3234,17 @@
       <c r="E18" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="5" t="n">
+      <c r="F18" s="5">
         <v>1.93</v>
       </c>
-      <c r="G18" s="5" t="n">
+      <c r="G18" s="5">
         <v>1.62</v>
       </c>
-      <c r="H18" s="5" t="n">
+      <c r="H18" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>12</v>
       </c>
@@ -3038,15 +3260,15 @@
       <c r="E19" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="5" t="n">
+      <c r="F19" s="5">
         <v>0.37</v>
       </c>
       <c r="G19" s="5"/>
-      <c r="H19" s="5" t="n">
+      <c r="H19" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A20" s="5" t="s">
         <v>15</v>
       </c>
@@ -3066,7 +3288,7 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3082,17 +3304,17 @@
       <c r="E21" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F21" s="5" t="n">
-        <v>0.796</v>
-      </c>
-      <c r="G21" s="5" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="H21" s="5" t="n">
+      <c r="F21" s="5">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.45700000000000002</v>
+      </c>
+      <c r="H21" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A22" s="5" t="s">
         <v>12</v>
       </c>
@@ -3108,17 +3330,17 @@
       <c r="E22" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="5" t="n">
+      <c r="F22" s="5">
         <v>0.439</v>
       </c>
-      <c r="G22" s="5" t="n">
+      <c r="G22" s="5">
         <v>0.214</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H22" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A23" s="5" t="s">
         <v>23</v>
       </c>
@@ -3134,15 +3356,15 @@
       <c r="E23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="5" t="n">
+      <c r="F23" s="5">
         <v>0.439</v>
       </c>
-      <c r="G23" s="5" t="n">
+      <c r="G23" s="5">
         <v>0.214</v>
       </c>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
@@ -3158,15 +3380,15 @@
       <c r="E24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="5" t="n">
+      <c r="F24" s="5">
         <v>0.439</v>
       </c>
-      <c r="G24" s="5" t="n">
+      <c r="G24" s="5">
         <v>0.214</v>
       </c>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
@@ -3182,15 +3404,15 @@
       <c r="E25" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="5" t="n">
+      <c r="F25" s="5">
         <v>0.439</v>
       </c>
-      <c r="G25" s="5" t="n">
+      <c r="G25" s="5">
         <v>0.214</v>
       </c>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
@@ -3206,15 +3428,15 @@
       <c r="E26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="5" t="n">
+      <c r="F26" s="5">
         <v>0.439</v>
       </c>
-      <c r="G26" s="5" t="n">
+      <c r="G26" s="5">
         <v>0.214</v>
       </c>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A27" s="5" t="s">
         <v>7</v>
       </c>
@@ -3230,15 +3452,15 @@
       <c r="E27" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="5" t="n">
-        <v>0.686</v>
+      <c r="F27" s="5">
+        <v>0.68600000000000005</v>
       </c>
       <c r="G27" s="5"/>
-      <c r="H27" s="5" t="n">
+      <c r="H27" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A28" s="5" t="s">
         <v>7</v>
       </c>
@@ -3254,17 +3476,17 @@
       <c r="E28" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="F28" s="5" t="n">
-        <v>0.823</v>
-      </c>
-      <c r="G28" s="5" t="n">
-        <v>0.472</v>
-      </c>
-      <c r="H28" s="5" t="n">
+      <c r="F28" s="5">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="G28" s="5">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H28" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A29" s="5" t="s">
         <v>23</v>
       </c>
@@ -3280,17 +3502,17 @@
       <c r="E29" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="5" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="G29" s="5" t="n">
+      <c r="F29" s="5">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="G29" s="5">
         <v>2.11</v>
       </c>
-      <c r="H29" s="5" t="n">
+      <c r="H29" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A30" s="5" t="s">
         <v>12</v>
       </c>
@@ -3306,15 +3528,15 @@
       <c r="E30" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="5" t="n">
-        <v>0.713</v>
+      <c r="F30" s="5">
+        <v>0.71299999999999997</v>
       </c>
       <c r="G30" s="5"/>
-      <c r="H30" s="5" t="n">
+      <c r="H30" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A31" s="5" t="s">
         <v>19</v>
       </c>
@@ -3330,13 +3552,13 @@
       <c r="E31" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="F31" s="5" t="n">
-        <v>0.713</v>
+      <c r="F31" s="5">
+        <v>0.71299999999999997</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A33" s="5" t="s">
         <v>37</v>
       </c>
@@ -3350,17 +3572,17 @@
       <c r="E33" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G33" s="5" t="n">
+      <c r="F33" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G33" s="5">
         <v>0.04</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H33" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A34" s="5" t="s">
         <v>93</v>
       </c>
@@ -3374,15 +3596,15 @@
       <c r="E34" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F34" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G34" s="5" t="n">
+      <c r="F34" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G34" s="5">
         <v>0.04</v>
       </c>
       <c r="H34" s="5"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -3396,17 +3618,17 @@
       <c r="E35" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G35" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H35" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F35" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G35" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H35" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A36" s="5" t="s">
         <v>92</v>
       </c>
@@ -3420,15 +3642,15 @@
       <c r="E36" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G36" s="5" t="n">
-        <v>0.029</v>
+      <c r="F36" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H36" s="5"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A37" s="5" t="s">
         <v>37</v>
       </c>
@@ -3442,15 +3664,15 @@
       <c r="E37" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G37" s="5" t="n">
-        <v>0.029</v>
+      <c r="F37" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G37" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H37" s="5"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A38" s="5" t="s">
         <v>49</v>
       </c>
@@ -3464,17 +3686,17 @@
       <c r="E38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F38" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G38" s="5" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="H38" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F38" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G38" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H38" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A39" s="5" t="s">
         <v>91</v>
       </c>
@@ -3488,15 +3710,15 @@
       <c r="E39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F39" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G39" s="5" t="n">
-        <v>0.049</v>
+      <c r="F39" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G39" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H39" s="5"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A40" s="5" t="s">
         <v>91</v>
       </c>
@@ -3510,15 +3732,15 @@
       <c r="E40" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F40" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G40" s="5" t="n">
-        <v>0.049</v>
+      <c r="F40" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G40" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
@@ -3532,15 +3754,15 @@
       <c r="E41" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G41" s="5" t="n">
-        <v>0.049</v>
+      <c r="F41" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G41" s="5">
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A42" s="5" t="s">
         <v>40</v>
       </c>
@@ -3554,17 +3776,17 @@
       <c r="E42" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F42" s="5" t="n">
-        <v>0.165</v>
-      </c>
-      <c r="G42" s="5" t="n">
+      <c r="F42" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="G42" s="5">
         <v>0.04</v>
       </c>
-      <c r="H42" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H42" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A43" s="5" t="s">
         <v>55</v>
       </c>
@@ -3578,15 +3800,15 @@
       <c r="E43" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F43" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G43" s="5" t="n">
-        <v>0.034</v>
+      <c r="F43" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G43" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A44" s="5" t="s">
         <v>91</v>
       </c>
@@ -3600,15 +3822,15 @@
       <c r="E44" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="F44" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G44" s="5" t="n">
-        <v>0.034</v>
+      <c r="F44" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G44" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A45" s="5" t="s">
         <v>52</v>
       </c>
@@ -3622,17 +3844,17 @@
       <c r="E45" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G45" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H45" s="5" t="n">
+      <c r="F45" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G45" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H45" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A46" s="5" t="s">
         <v>43</v>
       </c>
@@ -3646,15 +3868,15 @@
       <c r="E46" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G46" s="5" t="n">
-        <v>0.029</v>
+      <c r="F46" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G46" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A47" s="5" t="s">
         <v>46</v>
       </c>
@@ -3668,15 +3890,15 @@
       <c r="E47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G47" s="5" t="n">
-        <v>0.029</v>
+      <c r="F47" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G47" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A48" s="5" t="s">
         <v>43</v>
       </c>
@@ -3690,15 +3912,15 @@
       <c r="E48" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G48" s="5" t="n">
-        <v>0.029</v>
+      <c r="F48" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G48" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A49" s="5" t="s">
         <v>114</v>
       </c>
@@ -3712,15 +3934,15 @@
       <c r="E49" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F49" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G49" s="5" t="n">
-        <v>0.029</v>
+      <c r="F49" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G49" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A50" s="5" t="s">
         <v>122</v>
       </c>
@@ -3734,15 +3956,15 @@
       <c r="E50" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F50" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G50" s="5" t="n">
-        <v>0.029</v>
+      <c r="F50" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G50" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A51" s="5" t="s">
         <v>115</v>
       </c>
@@ -3756,17 +3978,17 @@
       <c r="E51" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F51" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G51" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H51" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F51" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G51" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H51" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A52" s="5" t="s">
         <v>37</v>
       </c>
@@ -3780,15 +4002,15 @@
       <c r="E52" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F52" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G52" s="5" t="n">
-        <v>0.029</v>
+      <c r="F52" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G52" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H52" s="5"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A53" s="5" t="s">
         <v>40</v>
       </c>
@@ -3802,15 +4024,15 @@
       <c r="E53" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="F53" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G53" s="5" t="n">
-        <v>0.029</v>
+      <c r="F53" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G53" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H53" s="5"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A54" s="5" t="s">
         <v>92</v>
       </c>
@@ -3824,17 +4046,17 @@
       <c r="E54" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F54" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G54" s="5" t="n">
-        <v>0.049</v>
-      </c>
-      <c r="H54" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G54" s="5">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="H54" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A55" s="5" t="s">
         <v>49</v>
       </c>
@@ -3848,17 +4070,17 @@
       <c r="E55" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G55" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H55" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G55" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H55" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A56" s="5" t="s">
         <v>120</v>
       </c>
@@ -3872,15 +4094,15 @@
       <c r="E56" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F56" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G56" s="5" t="n">
-        <v>0.029</v>
+      <c r="F56" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G56" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H56" s="5"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A57" s="5" t="s">
         <v>121</v>
       </c>
@@ -3894,15 +4116,15 @@
       <c r="E57" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="F57" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G57" s="5" t="n">
-        <v>0.029</v>
+      <c r="F57" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G57" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H57" s="5"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A58" s="5" t="s">
         <v>40</v>
       </c>
@@ -3916,17 +4138,17 @@
       <c r="E58" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F58" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G58" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H58" s="5" t="n">
+      <c r="F58" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G58" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H58" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A59" s="5" t="s">
         <v>37</v>
       </c>
@@ -3940,15 +4162,15 @@
       <c r="E59" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <v>0.034</v>
+      <c r="F59" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G59" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H59" s="5"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A60" s="5" t="s">
         <v>52</v>
       </c>
@@ -3962,15 +4184,15 @@
       <c r="E60" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F60" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <v>0.034</v>
+      <c r="F60" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G60" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H60" s="5"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A61" s="5" t="s">
         <v>43</v>
       </c>
@@ -3984,15 +4206,15 @@
       <c r="E61" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F61" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G61" s="5" t="n">
-        <v>0.034</v>
+      <c r="F61" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G61" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H61" s="5"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A62" s="5" t="s">
         <v>46</v>
       </c>
@@ -4006,15 +4228,15 @@
       <c r="E62" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F62" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G62" s="5" t="n">
-        <v>0.034</v>
+      <c r="F62" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G62" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H62" s="5"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A63" s="5" t="s">
         <v>55</v>
       </c>
@@ -4028,17 +4250,17 @@
       <c r="E63" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F63" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G63" s="5" t="n">
-        <v>0.029</v>
-      </c>
-      <c r="H63" s="5" t="n">
+      <c r="F63" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G63" s="5">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="H63" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A64" s="5" t="s">
         <v>52</v>
       </c>
@@ -4052,15 +4274,15 @@
       <c r="E64" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F64" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G64" s="5" t="n">
-        <v>0.029</v>
+      <c r="F64" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G64" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H64" s="5"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A65" s="5" t="s">
         <v>55</v>
       </c>
@@ -4074,15 +4296,15 @@
       <c r="E65" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F65" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G65" s="5" t="n">
-        <v>0.029</v>
+      <c r="F65" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G65" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A66" s="5" t="s">
         <v>118</v>
       </c>
@@ -4096,15 +4318,15 @@
       <c r="E66" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F66" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G66" s="5" t="n">
-        <v>0.029</v>
+      <c r="F66" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G66" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H66" s="5"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A67" s="5" t="s">
         <v>119</v>
       </c>
@@ -4118,15 +4340,15 @@
       <c r="E67" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F67" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G67" s="5" t="n">
-        <v>0.029</v>
+      <c r="F67" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G67" s="5">
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="H67" s="5"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A68" s="5" t="s">
         <v>46</v>
       </c>
@@ -4140,17 +4362,17 @@
       <c r="E68" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F68" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G68" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H68" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G68" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H68" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A69" s="5" t="s">
         <v>37</v>
       </c>
@@ -4164,17 +4386,17 @@
       <c r="E69" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F69" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G69" s="5" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H69" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G69" s="5">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="H69" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A70" s="5" t="s">
         <v>40</v>
       </c>
@@ -4188,15 +4410,15 @@
       <c r="E70" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="F70" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G70" s="5" t="n">
-        <v>0.034</v>
+      <c r="F70" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G70" s="5">
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="H70" s="5"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A71" s="5" t="s">
         <v>49</v>
       </c>
@@ -4210,17 +4432,17 @@
       <c r="E71" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F71" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G71" s="5" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="H71" s="5" t="n">
+      <c r="F71" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G71" s="5">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H71" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A72" s="5" t="s">
         <v>40</v>
       </c>
@@ -4234,15 +4456,15 @@
       <c r="E72" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F72" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G72" s="5" t="n">
-        <v>0.012</v>
+      <c r="F72" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G72" s="5">
+        <v>1.2E-2</v>
       </c>
       <c r="H72" s="5"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A73" s="5" t="s">
         <v>46</v>
       </c>
@@ -4256,15 +4478,15 @@
       <c r="E73" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F73" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G73" s="5" t="n">
-        <v>0.012</v>
+      <c r="F73" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G73" s="5">
+        <v>1.2E-2</v>
       </c>
       <c r="H73" s="5"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A74" s="5" t="s">
         <v>49</v>
       </c>
@@ -4278,17 +4500,17 @@
       <c r="E74" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F74" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G74" s="5" t="n">
-        <v>0.036</v>
-      </c>
-      <c r="H74" s="5" t="n">
+      <c r="F74" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G74" s="5">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="H74" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A75" s="5" t="s">
         <v>52</v>
       </c>
@@ -4302,15 +4524,15 @@
       <c r="E75" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="F75" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G75" s="5" t="n">
-        <v>0.036</v>
+      <c r="F75" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G75" s="5">
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="H75" s="5"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:8" ht="12.6" x14ac:dyDescent="0.45">
       <c r="A76" s="5" t="s">
         <v>43</v>
       </c>
@@ -4324,248 +4546,247 @@
       <c r="E76" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="F76" s="5" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="G76" s="5" t="n">
-        <v>0.077</v>
-      </c>
-      <c r="H76" s="5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="F76" s="5">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="G76" s="5">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="H76" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
         <v>28</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="E78" t="s">
         <v>30</v>
       </c>
-      <c r="F78" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G78" s="0" t="n">
-        <v>0.631</v>
-      </c>
-      <c r="H78" s="0" t="n">
+      <c r="F78">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G78">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="H78">
         <v>12</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
         <v>31</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="E79" t="s">
         <v>30</v>
       </c>
-      <c r="F79" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G79" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="F79">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G79">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
         <v>31</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="E80" t="s">
         <v>30</v>
       </c>
-      <c r="F80" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G80" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="F80">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G80">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
         <v>31</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="E81" t="s">
         <v>30</v>
       </c>
-      <c r="F81" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G81" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="F81">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G81">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
         <v>31</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="E82" t="s">
         <v>30</v>
       </c>
-      <c r="F82" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G82" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="F82">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G82">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
         <v>31</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="E83" t="s">
         <v>30</v>
       </c>
-      <c r="F83" s="0" t="n">
-        <v>0.713</v>
-      </c>
-      <c r="G83" s="0" t="n">
-        <v>0.631</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="F83">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="G83">
+        <v>0.63100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
         <v>28</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="E84" t="s">
         <v>84</v>
       </c>
-      <c r="F84" s="0" t="n">
+      <c r="F84">
         <v>1.52</v>
       </c>
-      <c r="G84" s="0" t="n">
+      <c r="G84">
         <v>1.4</v>
       </c>
-      <c r="H84" s="0" t="n">
+      <c r="H84">
         <v>4</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
         <v>28</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="E85" t="s">
         <v>84</v>
       </c>
-      <c r="F85" s="0" t="n">
+      <c r="F85">
         <v>1.52</v>
       </c>
-      <c r="G85" s="0" t="n">
+      <c r="G85">
         <v>1.4</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
         <v>33</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="E87" t="s">
         <v>35</v>
       </c>
-      <c r="F87" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G87" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="F87">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G87">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
         <v>33</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="E88" t="s">
         <v>35</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G88" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="F88">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G88">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
         <v>85</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E89" s="0" t="s">
+      <c r="E89" t="s">
         <v>35</v>
       </c>
-      <c r="F89" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G89" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="F89">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G89">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
         <v>33</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E90" s="0" t="s">
+      <c r="E90" t="s">
         <v>35</v>
       </c>
-      <c r="F90" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G90" s="0" t="n">
-        <v>0.199</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="F90">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G90">
+        <v>0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
         <v>85</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E91" s="0" t="s">
+      <c r="E91" t="s">
         <v>35</v>
       </c>
-      <c r="F91" s="0" t="n">
-        <v>0.494</v>
-      </c>
-      <c r="G91" s="0" t="n">
-        <v>0.199</v>
+      <c r="F91">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="G91">
+        <v>0.19900000000000001</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="134">
   <si>
     <t xml:space="preserve">J0_BT</t>
   </si>
@@ -215,7 +215,7 @@
     <t xml:space="preserve">100u</t>
   </si>
   <si>
-    <t xml:space="preserve">TMCMB1A107MTRF</t>
+    <t xml:space="preserve">12106D107MAT2A</t>
   </si>
   <si>
     <t xml:space="preserve">270p</t>
@@ -414,6 +414,15 @@
   </si>
   <si>
     <t xml:space="preserve">MKS2C034701C00JO00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERM BLK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-282834-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">571-2828343</t>
   </si>
 </sst>
 </file>
@@ -527,17 +536,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A61" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G108" activeCellId="0" sqref="G108"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C71" activeCellId="0" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.3"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.4387755102041"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,7 +585,7 @@
         <v>0.601</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
@@ -935,7 +947,7 @@
         <v>0.601</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
         <v>7</v>
       </c>
@@ -943,7 +955,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>5</v>
@@ -952,13 +964,10 @@
         <v>64</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>0.686</v>
-      </c>
-      <c r="H22" s="0" t="n">
-        <v>0.576</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0.947</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
         <v>12</v>
       </c>
@@ -2558,6 +2567,10 @@
         <v>0.034</v>
       </c>
     </row>
+    <row r="105" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="0"/>
+      <c r="E105" s="0"/>
+    </row>
     <row r="106" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
         <v>127</v>
@@ -2593,6 +2606,25 @@
       </c>
       <c r="G107" s="0" t="n">
         <v>0.335</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F109" s="0" t="s">
+        <v>132</v>
+      </c>
+      <c r="G109" s="0" t="n">
+        <v>0.631</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="G110" s="0" t="n">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>
@@ -2619,9 +2651,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="11.2040816326531"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.2040816326531"/>
+    <col collapsed="false" hidden="false" max="4" min="1" style="0" width="10.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="20.6530612244898"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="10.9336734693878"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="991" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16386" windowHeight="8190" tabRatio="991" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="165">
   <si>
     <t>J0_BT</t>
   </si>
@@ -428,6 +429,93 @@
   </si>
   <si>
     <t xml:space="preserve">RK09712200MT </t>
+  </si>
+  <si>
+    <t>KNOB</t>
+  </si>
+  <si>
+    <t>POT</t>
+  </si>
+  <si>
+    <t>BOARD</t>
+  </si>
+  <si>
+    <t>PRJ</t>
+  </si>
+  <si>
+    <t>J0</t>
+  </si>
+  <si>
+    <t>VOL/TONE</t>
+  </si>
+  <si>
+    <t>250kA/250kA</t>
+  </si>
+  <si>
+    <t>CONCENTRIC</t>
+  </si>
+  <si>
+    <t>BASS/TREBLE</t>
+  </si>
+  <si>
+    <t>25kA/25kA</t>
+  </si>
+  <si>
+    <t>BALANCE</t>
+  </si>
+  <si>
+    <t>MOUSER</t>
+  </si>
+  <si>
+    <t>F0</t>
+  </si>
+  <si>
+    <t>VOL/BAL</t>
+  </si>
+  <si>
+    <t>20kB/100kA</t>
+  </si>
+  <si>
+    <t>50kB/50kB</t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
+  <si>
+    <t>TONE</t>
+  </si>
+  <si>
+    <t>20kA</t>
+  </si>
+  <si>
+    <t>SINGLE</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Knob</t>
+  </si>
+  <si>
+    <t>Stock</t>
+  </si>
+  <si>
+    <t>SAD</t>
+  </si>
+  <si>
+    <t>NORM</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>LESS PHIL</t>
   </si>
 </sst>
 </file>
@@ -2880,7 +2968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -4619,4 +4707,255 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.0546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.27734375" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D6" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J12" t="s">
+        <v>160</v>
+      </c>
+      <c r="K12" t="s">
+        <v>161</v>
+      </c>
+      <c r="L12" t="s">
+        <v>162</v>
+      </c>
+      <c r="M12" t="s">
+        <v>163</v>
+      </c>
+      <c r="N12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>143</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <v>2</v>
+      </c>
+      <c r="M13">
+        <v>6</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>2</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>